--- a/data/pca/factorExposure/factorExposure_2016-02-12.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-02-12.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.008265124313298509</v>
+        <v>0.01348656129137495</v>
       </c>
       <c r="C2">
-        <v>0.0512816348122685</v>
+        <v>0.04258601763342357</v>
       </c>
       <c r="D2">
-        <v>0.07563466078167666</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.09044160906966135</v>
+      </c>
+      <c r="E2">
+        <v>-0.1204819367834322</v>
+      </c>
+      <c r="F2">
+        <v>-0.02752970372822718</v>
+      </c>
+      <c r="G2">
+        <v>0.04622524964338925</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.02512456645611639</v>
+        <v>0.01544904628053712</v>
       </c>
       <c r="C3">
-        <v>0.1046486104959115</v>
+        <v>0.05175131571994458</v>
       </c>
       <c r="D3">
-        <v>0.08986104261368751</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.07416038328264396</v>
+      </c>
+      <c r="E3">
+        <v>-0.11455774492764</v>
+      </c>
+      <c r="F3">
+        <v>0.05212252317436695</v>
+      </c>
+      <c r="G3">
+        <v>0.08650685852627417</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.05970658102192685</v>
+        <v>0.06035843141972329</v>
       </c>
       <c r="C4">
-        <v>0.0676642161272164</v>
+        <v>0.06732764085410974</v>
       </c>
       <c r="D4">
-        <v>0.07464893916090715</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.1024229911020824</v>
+      </c>
+      <c r="E4">
+        <v>-0.09131658004415086</v>
+      </c>
+      <c r="F4">
+        <v>0.02958644689313639</v>
+      </c>
+      <c r="G4">
+        <v>-0.03825452473116754</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.0435545234429762</v>
+        <v>0.04041618780390901</v>
       </c>
       <c r="C6">
-        <v>0.04388195616817898</v>
+        <v>0.03109198484543855</v>
       </c>
       <c r="D6">
-        <v>0.07354989777034117</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.09976447004835055</v>
+      </c>
+      <c r="E6">
+        <v>-0.07847639834266587</v>
+      </c>
+      <c r="F6">
+        <v>0.01950379010817268</v>
+      </c>
+      <c r="G6">
+        <v>0.002899513667203489</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.02923905135876126</v>
+        <v>0.02173838430555827</v>
       </c>
       <c r="C7">
-        <v>0.04314652524256851</v>
+        <v>0.04067454712627836</v>
       </c>
       <c r="D7">
-        <v>0.05363795163257154</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.07552063078466778</v>
+      </c>
+      <c r="E7">
+        <v>-0.06873397925149119</v>
+      </c>
+      <c r="F7">
+        <v>0.02374088431427305</v>
+      </c>
+      <c r="G7">
+        <v>-0.04894149863660099</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.009738700719383479</v>
+        <v>0.008012135394966922</v>
       </c>
       <c r="C8">
-        <v>0.05185381687366316</v>
+        <v>0.04102731983410253</v>
       </c>
       <c r="D8">
-        <v>0.05151765030022614</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.06509720862139289</v>
+      </c>
+      <c r="E8">
+        <v>-0.05367208086153638</v>
+      </c>
+      <c r="F8">
+        <v>0.0156991526340114</v>
+      </c>
+      <c r="G8">
+        <v>0.01725897188770116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.04081139934294467</v>
+        <v>0.04335780483047983</v>
       </c>
       <c r="C9">
-        <v>0.05093701249442341</v>
+        <v>0.05486114077088623</v>
       </c>
       <c r="D9">
-        <v>0.06120316790929408</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.0862990566617287</v>
+      </c>
+      <c r="E9">
+        <v>-0.07020635419599089</v>
+      </c>
+      <c r="F9">
+        <v>0.005927364371895138</v>
+      </c>
+      <c r="G9">
+        <v>-0.04120166938490399</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.08780191936307179</v>
+        <v>0.1123815129371613</v>
       </c>
       <c r="C10">
-        <v>-0.1788231609811027</v>
+        <v>-0.1938990878685095</v>
       </c>
       <c r="D10">
-        <v>0.005131214908812212</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.009834222048504799</v>
+      </c>
+      <c r="E10">
+        <v>-0.04587592559734659</v>
+      </c>
+      <c r="F10">
+        <v>0.01456681898158201</v>
+      </c>
+      <c r="G10">
+        <v>-0.03665005942164356</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.04460394057709743</v>
+        <v>0.03709999442103457</v>
       </c>
       <c r="C11">
-        <v>0.05618158933834731</v>
+        <v>0.05005189393614766</v>
       </c>
       <c r="D11">
-        <v>0.04390564167755288</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.05228128136368787</v>
+      </c>
+      <c r="E11">
+        <v>-0.0277417876019559</v>
+      </c>
+      <c r="F11">
+        <v>0.01180980314898333</v>
+      </c>
+      <c r="G11">
+        <v>-0.03654780342480608</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.04776472615587798</v>
+        <v>0.03956831190343011</v>
       </c>
       <c r="C12">
-        <v>0.05155433559634322</v>
+        <v>0.04880780719137213</v>
       </c>
       <c r="D12">
-        <v>0.02897633509546497</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.04553779391906063</v>
+      </c>
+      <c r="E12">
+        <v>-0.03913981977033229</v>
+      </c>
+      <c r="F12">
+        <v>0.00569077999006931</v>
+      </c>
+      <c r="G12">
+        <v>-0.03219520894871552</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.01478850421178742</v>
+        <v>0.01571055325517885</v>
       </c>
       <c r="C13">
-        <v>0.05787997340769856</v>
+        <v>0.04580789867308777</v>
       </c>
       <c r="D13">
-        <v>0.05754185946855846</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.09505674407978471</v>
+      </c>
+      <c r="E13">
+        <v>-0.1167567671385751</v>
+      </c>
+      <c r="F13">
+        <v>0.02621077905491681</v>
+      </c>
+      <c r="G13">
+        <v>-0.04202699872962028</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.01427729022583506</v>
+        <v>0.007741890534954796</v>
       </c>
       <c r="C14">
-        <v>0.03373375513049381</v>
+        <v>0.03080976008518037</v>
       </c>
       <c r="D14">
-        <v>0.03399204428356601</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.05795803728577691</v>
+      </c>
+      <c r="E14">
+        <v>-0.07368668281704369</v>
+      </c>
+      <c r="F14">
+        <v>-0.003399049433298783</v>
+      </c>
+      <c r="G14">
+        <v>-0.02920725334165183</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>0.0004077541910738659</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.007108806303236072</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.01546816984658456</v>
+      </c>
+      <c r="E15">
+        <v>-0.009033033246997892</v>
+      </c>
+      <c r="F15">
+        <v>-0.001449985934556451</v>
+      </c>
+      <c r="G15">
+        <v>0.002843134590687954</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.04327886695034577</v>
+        <v>0.03630296015938975</v>
       </c>
       <c r="C16">
-        <v>0.05362225009128</v>
+        <v>0.04826256002498579</v>
       </c>
       <c r="D16">
-        <v>0.03344912288293718</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.04970134735795936</v>
+      </c>
+      <c r="E16">
+        <v>-0.04235403873911926</v>
+      </c>
+      <c r="F16">
+        <v>-0.005433028853595325</v>
+      </c>
+      <c r="G16">
+        <v>-0.02819442077684869</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.02302081394297331</v>
+        <v>0.01619600052933855</v>
       </c>
       <c r="C19">
-        <v>0.0515141646100712</v>
+        <v>0.0399198338730049</v>
       </c>
       <c r="D19">
-        <v>0.1168050698483327</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.1136145246923295</v>
+      </c>
+      <c r="E19">
+        <v>-0.115494455351317</v>
+      </c>
+      <c r="F19">
+        <v>-0.01668685854070637</v>
+      </c>
+      <c r="G19">
+        <v>0.004737109762437613</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.02138488925108963</v>
+        <v>0.01687082934373351</v>
       </c>
       <c r="C20">
-        <v>0.05480686069799352</v>
+        <v>0.04374905185532319</v>
       </c>
       <c r="D20">
-        <v>0.05195168587205073</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.07266702989258519</v>
+      </c>
+      <c r="E20">
+        <v>-0.08641967135042967</v>
+      </c>
+      <c r="F20">
+        <v>0.00458689424244371</v>
+      </c>
+      <c r="G20">
+        <v>-0.016640808321224</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.01755100258477319</v>
+        <v>0.01417797329702152</v>
       </c>
       <c r="C21">
-        <v>0.05852762039389689</v>
+        <v>0.04715176483959139</v>
       </c>
       <c r="D21">
-        <v>0.06393282488440669</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.09758253303463582</v>
+      </c>
+      <c r="E21">
+        <v>-0.1448704059587231</v>
+      </c>
+      <c r="F21">
+        <v>-0.00748686101869169</v>
+      </c>
+      <c r="G21">
+        <v>-0.05812076159402297</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>-0.001211330616041763</v>
+        <v>0.004942144707505708</v>
       </c>
       <c r="C22">
-        <v>0.01469424776600456</v>
+        <v>0.03161439266859298</v>
       </c>
       <c r="D22">
-        <v>0.0379446170077518</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.08545749485979093</v>
+      </c>
+      <c r="E22">
+        <v>-0.05953356309009313</v>
+      </c>
+      <c r="F22">
+        <v>0.06969367392913581</v>
+      </c>
+      <c r="G22">
+        <v>0.05405030867180374</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>-0.00122452646583256</v>
+        <v>0.005065559473312766</v>
       </c>
       <c r="C23">
-        <v>0.01464110112716691</v>
+        <v>0.03169177989035781</v>
       </c>
       <c r="D23">
-        <v>0.03773728193380598</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.08479154648233185</v>
+      </c>
+      <c r="E23">
+        <v>-0.05980852081818025</v>
+      </c>
+      <c r="F23">
+        <v>0.0697658399888352</v>
+      </c>
+      <c r="G23">
+        <v>0.05332223512379815</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.0404234437119961</v>
+        <v>0.0374731135066045</v>
       </c>
       <c r="C24">
-        <v>0.05483761337031503</v>
+        <v>0.05684919211818037</v>
       </c>
       <c r="D24">
-        <v>0.04014099372035448</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.05239320715984568</v>
+      </c>
+      <c r="E24">
+        <v>-0.04520069281458674</v>
+      </c>
+      <c r="F24">
+        <v>-0.002579211517367621</v>
+      </c>
+      <c r="G24">
+        <v>-0.0427276684120589</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.05021885568861349</v>
+        <v>0.04356108102591776</v>
       </c>
       <c r="C25">
-        <v>0.06054508541542531</v>
+        <v>0.05698548154834596</v>
       </c>
       <c r="D25">
-        <v>0.03763001250214828</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.04891016862976003</v>
+      </c>
+      <c r="E25">
+        <v>-0.03782840698651704</v>
+      </c>
+      <c r="F25">
+        <v>0.01447701288989172</v>
+      </c>
+      <c r="G25">
+        <v>-0.04708440302763244</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.02214707818390882</v>
+        <v>0.01871398464154405</v>
       </c>
       <c r="C26">
-        <v>0.01831533911694267</v>
+        <v>0.01909222692742475</v>
       </c>
       <c r="D26">
-        <v>0.03103976113484589</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.05082136349825114</v>
+      </c>
+      <c r="E26">
+        <v>-0.05611658038612896</v>
+      </c>
+      <c r="F26">
+        <v>-0.00863433295676236</v>
+      </c>
+      <c r="G26">
+        <v>-0.007051046255082333</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1312,226 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.113197692202206</v>
+        <v>0.15513938112119</v>
       </c>
       <c r="C28">
-        <v>-0.2549599796785314</v>
+        <v>-0.2529651596043043</v>
       </c>
       <c r="D28">
-        <v>-0.02196417766711304</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.02325514991475448</v>
+      </c>
+      <c r="E28">
+        <v>-0.08138704055208726</v>
+      </c>
+      <c r="F28">
+        <v>0.008704668779119573</v>
+      </c>
+      <c r="G28">
+        <v>-0.07465189470900098</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.009778622998452157</v>
+        <v>0.00724546956171379</v>
       </c>
       <c r="C29">
-        <v>0.03143083910759373</v>
+        <v>0.0291024678919885</v>
       </c>
       <c r="D29">
-        <v>0.02387040870175076</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.05258276903941962</v>
+      </c>
+      <c r="E29">
+        <v>-0.07187497768713318</v>
+      </c>
+      <c r="F29">
+        <v>0.007518121512428258</v>
+      </c>
+      <c r="G29">
+        <v>-0.03669342008059898</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.04168644887515449</v>
+        <v>0.04225804905628337</v>
       </c>
       <c r="C30">
-        <v>0.04298086684173996</v>
+        <v>0.0554126998263059</v>
       </c>
       <c r="D30">
-        <v>0.1169610835431335</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.1464492201778563</v>
+      </c>
+      <c r="E30">
+        <v>-0.08742163251983276</v>
+      </c>
+      <c r="F30">
+        <v>-0.004777997702977306</v>
+      </c>
+      <c r="G30">
+        <v>0.02709458532072623</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.06744691947033492</v>
+        <v>0.06283448579142542</v>
       </c>
       <c r="C31">
-        <v>0.06094263602477461</v>
+        <v>0.06869727946410689</v>
       </c>
       <c r="D31">
-        <v>0.005295471285728648</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.02552061448831237</v>
+      </c>
+      <c r="E31">
+        <v>-0.06948262491612874</v>
+      </c>
+      <c r="F31">
+        <v>0.04602875368098075</v>
+      </c>
+      <c r="G31">
+        <v>-0.0297891489390627</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.004066806993337934</v>
+        <v>0.00427156668329347</v>
       </c>
       <c r="C32">
-        <v>0.0296712947275635</v>
+        <v>0.03041685466338234</v>
       </c>
       <c r="D32">
-        <v>0.04849197238216488</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.06583615543756316</v>
+      </c>
+      <c r="E32">
+        <v>-0.1091258267006059</v>
+      </c>
+      <c r="F32">
+        <v>-0.01630361655834468</v>
+      </c>
+      <c r="G32">
+        <v>-0.0549426117174419</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.03424660966719794</v>
+        <v>0.02840956248081365</v>
       </c>
       <c r="C33">
-        <v>0.05475505247436265</v>
+        <v>0.05023053629914402</v>
       </c>
       <c r="D33">
-        <v>0.0879783436590483</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.1097331108284664</v>
+      </c>
+      <c r="E33">
+        <v>-0.09230994835687527</v>
+      </c>
+      <c r="F33">
+        <v>0.02202651369799</v>
+      </c>
+      <c r="G33">
+        <v>-0.03514970896155072</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.04320131627582915</v>
+        <v>0.03795588649025936</v>
       </c>
       <c r="C34">
-        <v>0.06969792730121173</v>
+        <v>0.06573192943340299</v>
       </c>
       <c r="D34">
-        <v>0.05238543069080513</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.05688858786300856</v>
+      </c>
+      <c r="E34">
+        <v>-0.02456676961575669</v>
+      </c>
+      <c r="F34">
+        <v>-0.000113031816877243</v>
+      </c>
+      <c r="G34">
+        <v>-0.04896426708563003</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>3.604944634795964e-05</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>0.0006405875589788859</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.0007319783126798157</v>
+      </c>
+      <c r="E35">
+        <v>0.0008434998783963596</v>
+      </c>
+      <c r="F35">
+        <v>-0.0001598965229771751</v>
+      </c>
+      <c r="G35">
+        <v>0.0001620892846173322</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.0238900327223224</v>
+        <v>0.01940597008118888</v>
       </c>
       <c r="C36">
-        <v>0.02219152614880356</v>
+        <v>0.01737048252025393</v>
       </c>
       <c r="D36">
-        <v>0.02972902408088053</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.05542212130364011</v>
+      </c>
+      <c r="E36">
+        <v>-0.06620140848393201</v>
+      </c>
+      <c r="F36">
+        <v>0.005249809795648666</v>
+      </c>
+      <c r="G36">
+        <v>-0.02905136000330965</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1542,111 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.03339671382759134</v>
+        <v>0.02474227479146877</v>
       </c>
       <c r="C38">
-        <v>0.03868945289734315</v>
+        <v>0.02855557591340996</v>
       </c>
       <c r="D38">
-        <v>0.01651979605487377</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.04592355268956559</v>
+      </c>
+      <c r="E38">
+        <v>-0.05367714357685757</v>
+      </c>
+      <c r="F38">
+        <v>0.00715152975779879</v>
+      </c>
+      <c r="G38">
+        <v>0.01344998259335774</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.0509039807899498</v>
+        <v>0.04336176009010224</v>
       </c>
       <c r="C39">
-        <v>0.06610985594970788</v>
+        <v>0.06437647336971292</v>
       </c>
       <c r="D39">
-        <v>0.05853192412248336</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.08356573305848525</v>
+      </c>
+      <c r="E39">
+        <v>-0.04884798108023756</v>
+      </c>
+      <c r="F39">
+        <v>-0.02171351222323985</v>
+      </c>
+      <c r="G39">
+        <v>-0.02558638829742715</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01097267970216509</v>
+        <v>0.01430081632604009</v>
       </c>
       <c r="C40">
-        <v>0.05533609527023704</v>
+        <v>0.04093769879710171</v>
       </c>
       <c r="D40">
-        <v>0.03726364628525429</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.06398886743063489</v>
+      </c>
+      <c r="E40">
+        <v>-0.1178641038257725</v>
+      </c>
+      <c r="F40">
+        <v>0.04381775649521419</v>
+      </c>
+      <c r="G40">
+        <v>0.000305155350004771</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.02598571643632956</v>
+        <v>0.0213672363304488</v>
       </c>
       <c r="C41">
-        <v>0.01462596262946319</v>
+        <v>0.0107625241765866</v>
       </c>
       <c r="D41">
-        <v>0.02383369551052184</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.03533786081660171</v>
+      </c>
+      <c r="E41">
+        <v>-0.07475743081954779</v>
+      </c>
+      <c r="F41">
+        <v>0.008453382083838782</v>
+      </c>
+      <c r="G41">
+        <v>-0.02389515456600382</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1657,65 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.04703587551333574</v>
+        <v>0.03196907322384645</v>
       </c>
       <c r="C43">
-        <v>0.03860967842243422</v>
+        <v>0.02581453245546834</v>
       </c>
       <c r="D43">
-        <v>0.0558536345157146</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.06949066236121032</v>
+      </c>
+      <c r="E43">
+        <v>-0.07853355315351196</v>
+      </c>
+      <c r="F43">
+        <v>0.03085926156524101</v>
+      </c>
+      <c r="G43">
+        <v>-0.03333951050908427</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.01589267859745042</v>
+        <v>0.01816183616816538</v>
       </c>
       <c r="C44">
-        <v>0.06767271000312551</v>
+        <v>0.04880925257143551</v>
       </c>
       <c r="D44">
-        <v>0.03451892687845171</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.06774273591263295</v>
+      </c>
+      <c r="E44">
+        <v>-0.1017177589844156</v>
+      </c>
+      <c r="F44">
+        <v>-0.009236877943050359</v>
+      </c>
+      <c r="G44">
+        <v>-0.02256525234291418</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.01575315920988386</v>
+        <v>0.01408036920056017</v>
       </c>
       <c r="C46">
-        <v>0.03190973623468441</v>
+        <v>0.03239504277865598</v>
       </c>
       <c r="D46">
-        <v>0.01934066859422165</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.04834087111224543</v>
+      </c>
+      <c r="E46">
+        <v>-0.08189752608140247</v>
+      </c>
+      <c r="F46">
+        <v>-0.009748979645964941</v>
+      </c>
+      <c r="G46">
+        <v>-0.05639900635729644</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.09265892350570948</v>
+        <v>0.09275490210830015</v>
       </c>
       <c r="C47">
-        <v>0.08211407906782971</v>
+        <v>0.0880635240411735</v>
       </c>
       <c r="D47">
-        <v>-0.01641397023403278</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.003365547962562832</v>
+      </c>
+      <c r="E47">
+        <v>-0.05820798049215651</v>
+      </c>
+      <c r="F47">
+        <v>0.0320621582913131</v>
+      </c>
+      <c r="G47">
+        <v>-0.06534345711832848</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.02755281190352653</v>
+        <v>0.02190065130310856</v>
       </c>
       <c r="C48">
-        <v>0.02228431936965833</v>
+        <v>0.02146719866528961</v>
       </c>
       <c r="D48">
-        <v>0.017640833014339</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.04877170368524524</v>
+      </c>
+      <c r="E48">
+        <v>-0.08030360028665043</v>
+      </c>
+      <c r="F48">
+        <v>-0.002215086215300948</v>
+      </c>
+      <c r="G48">
+        <v>-0.03639108408409143</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.0860263797685953</v>
+        <v>0.07334054197643787</v>
       </c>
       <c r="C50">
-        <v>0.1018771646311373</v>
+        <v>0.08199423149556302</v>
       </c>
       <c r="D50">
-        <v>-0.004090102326711388</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.03029235431304592</v>
+      </c>
+      <c r="E50">
+        <v>-0.07648085073164747</v>
+      </c>
+      <c r="F50">
+        <v>0.05237714641440293</v>
+      </c>
+      <c r="G50">
+        <v>-0.01613738479546956</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.01524970429346681</v>
+        <v>0.01214058813613528</v>
       </c>
       <c r="C51">
-        <v>0.04640766191620613</v>
+        <v>0.02848739403976911</v>
       </c>
       <c r="D51">
-        <v>0.07854655394111228</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.08362255038098533</v>
+      </c>
+      <c r="E51">
+        <v>-0.06257885197900999</v>
+      </c>
+      <c r="F51">
+        <v>-0.007181273958476724</v>
+      </c>
+      <c r="G51">
+        <v>-0.005651472725770307</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +1887,111 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.08278212456676011</v>
+        <v>0.0973053389625257</v>
       </c>
       <c r="C53">
-        <v>0.09080444468714305</v>
+        <v>0.09534002653321708</v>
       </c>
       <c r="D53">
-        <v>-0.03783776637304196</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.0332737881585935</v>
+      </c>
+      <c r="E53">
+        <v>-0.09105944044181571</v>
+      </c>
+      <c r="F53">
+        <v>0.03233747980557122</v>
+      </c>
+      <c r="G53">
+        <v>-0.08164747923559422</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.04228302265032726</v>
+        <v>0.0325536413766955</v>
       </c>
       <c r="C54">
-        <v>0.03792483967990064</v>
+        <v>0.03424741667300363</v>
       </c>
       <c r="D54">
-        <v>0.0373454978721523</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.06247203188034871</v>
+      </c>
+      <c r="E54">
+        <v>-0.07444774144660936</v>
+      </c>
+      <c r="F54">
+        <v>-0.00386822585687785</v>
+      </c>
+      <c r="G54">
+        <v>-0.03393503984148474</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.08497007388590655</v>
+        <v>0.09242730106080108</v>
       </c>
       <c r="C55">
-        <v>0.0708830194626684</v>
+        <v>0.07832941749290456</v>
       </c>
       <c r="D55">
-        <v>-0.03633485403757431</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.03289219688252851</v>
+      </c>
+      <c r="E55">
+        <v>-0.05121093570818396</v>
+      </c>
+      <c r="F55">
+        <v>0.03497910545256607</v>
+      </c>
+      <c r="G55">
+        <v>-0.03964764737335028</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.1444130312184864</v>
+        <v>0.1490904448376655</v>
       </c>
       <c r="C56">
-        <v>0.1021758717385961</v>
+        <v>0.1144889409121265</v>
       </c>
       <c r="D56">
-        <v>-0.03891590191766629</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.0399114532736926</v>
+      </c>
+      <c r="E56">
+        <v>-0.0456073662128066</v>
+      </c>
+      <c r="F56">
+        <v>0.026721124434222</v>
+      </c>
+      <c r="G56">
+        <v>-0.05446037469505906</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2002,111 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.05185486728957399</v>
+        <v>0.04070741104798585</v>
       </c>
       <c r="C58">
-        <v>0.0101300954700218</v>
+        <v>0.02092969138723224</v>
       </c>
       <c r="D58">
-        <v>0.3275940426946515</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.3286882547596808</v>
+      </c>
+      <c r="E58">
+        <v>-0.2853540759213457</v>
+      </c>
+      <c r="F58">
+        <v>0.1277926213670685</v>
+      </c>
+      <c r="G58">
+        <v>0.4767708798508235</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.137695454499175</v>
+        <v>0.1528334939971455</v>
       </c>
       <c r="C59">
-        <v>-0.1990084929163184</v>
+        <v>-0.1862988228684415</v>
       </c>
       <c r="D59">
-        <v>0.02717011373659588</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.03608136856574931</v>
+      </c>
+      <c r="E59">
+        <v>-0.03014319798428066</v>
+      </c>
+      <c r="F59">
+        <v>-0.03007376592625334</v>
+      </c>
+      <c r="G59">
+        <v>0.01171688220258264</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.2682590871597102</v>
+        <v>0.2480285542002904</v>
       </c>
       <c r="C60">
-        <v>0.08920144968715477</v>
+        <v>0.08843288753877437</v>
       </c>
       <c r="D60">
-        <v>0.2167164208515253</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.2040152521339095</v>
+      </c>
+      <c r="E60">
+        <v>0.3030267643893165</v>
+      </c>
+      <c r="F60">
+        <v>0.09208294257626756</v>
+      </c>
+      <c r="G60">
+        <v>0.03681408940877801</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.04986332004046891</v>
+        <v>0.04502437948189292</v>
       </c>
       <c r="C61">
-        <v>0.05754013576763445</v>
+        <v>0.05770190332390202</v>
       </c>
       <c r="D61">
-        <v>0.05981476330922433</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.07224622403544351</v>
+      </c>
+      <c r="E61">
+        <v>-0.05100213037491276</v>
+      </c>
+      <c r="F61">
+        <v>-0.001011886290488631</v>
+      </c>
+      <c r="G61">
+        <v>-0.04330506577494302</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.01711921689790245</v>
+        <v>0.01730728810215343</v>
       </c>
       <c r="C63">
-        <v>0.03501948645198273</v>
+        <v>0.03102530411696873</v>
       </c>
       <c r="D63">
-        <v>0.01278204883147708</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.04707248322269631</v>
+      </c>
+      <c r="E63">
+        <v>-0.07629305671537823</v>
+      </c>
+      <c r="F63">
+        <v>0.02723116607983291</v>
+      </c>
+      <c r="G63">
+        <v>-0.01990854428306909</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.05484761600945436</v>
+        <v>0.05798981236506719</v>
       </c>
       <c r="C64">
-        <v>0.05412210752522846</v>
+        <v>0.065997234930271</v>
       </c>
       <c r="D64">
-        <v>0.03740493204385832</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.03773938842942858</v>
+      </c>
+      <c r="E64">
+        <v>-0.04582077475812244</v>
+      </c>
+      <c r="F64">
+        <v>-0.01927101433230753</v>
+      </c>
+      <c r="G64">
+        <v>-0.07445230027373191</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.07044256583777667</v>
+        <v>0.05885150953714756</v>
       </c>
       <c r="C65">
-        <v>0.02701168560309612</v>
+        <v>0.02407070339405514</v>
       </c>
       <c r="D65">
-        <v>0.07512445105820735</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.1058383119997548</v>
+      </c>
+      <c r="E65">
+        <v>-0.04027798230612317</v>
+      </c>
+      <c r="F65">
+        <v>0.02448542003464842</v>
+      </c>
+      <c r="G65">
+        <v>0.02909617608893218</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.05741316728283223</v>
+        <v>0.05123595778792151</v>
       </c>
       <c r="C66">
-        <v>0.0809176125671459</v>
+        <v>0.07740504380119373</v>
       </c>
       <c r="D66">
-        <v>0.08330619409645509</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.1068935042869413</v>
+      </c>
+      <c r="E66">
+        <v>-0.05846450015132518</v>
+      </c>
+      <c r="F66">
+        <v>0.002561978194160076</v>
+      </c>
+      <c r="G66">
+        <v>-0.0216856495662473</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.05353558707782773</v>
+        <v>0.04365665566425472</v>
       </c>
       <c r="C67">
-        <v>0.03973111913847621</v>
+        <v>0.03235542144117937</v>
       </c>
       <c r="D67">
-        <v>0.001699159464593003</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.0195110611770906</v>
+      </c>
+      <c r="E67">
+        <v>-0.02645685778430551</v>
+      </c>
+      <c r="F67">
+        <v>0.007842807232440971</v>
+      </c>
+      <c r="G67">
+        <v>0.004972906327585308</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.1470670525645496</v>
+        <v>0.1629704775486701</v>
       </c>
       <c r="C68">
-        <v>-0.2746712009481421</v>
+        <v>-0.2329454300225001</v>
       </c>
       <c r="D68">
-        <v>-0.03012079203018448</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.008526024530101364</v>
+      </c>
+      <c r="E68">
+        <v>-0.05831935967335763</v>
+      </c>
+      <c r="F68">
+        <v>0.03027449927280436</v>
+      </c>
+      <c r="G68">
+        <v>0.01267078464728442</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.09377756419787489</v>
+        <v>0.08821032535509059</v>
       </c>
       <c r="C69">
-        <v>0.09398661282188822</v>
+        <v>0.1006163425731472</v>
       </c>
       <c r="D69">
-        <v>-0.01253344351987496</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.0176829511805635</v>
+      </c>
+      <c r="E69">
+        <v>-0.06062014260112693</v>
+      </c>
+      <c r="F69">
+        <v>0.01049086584118586</v>
+      </c>
+      <c r="G69">
+        <v>-0.05937737096084657</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2301,594 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.132887061726873</v>
+        <v>0.1567458600316771</v>
       </c>
       <c r="C71">
-        <v>-0.2447293824753226</v>
+        <v>-0.2312557660593373</v>
       </c>
       <c r="D71">
-        <v>0.01745661728826763</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.01849119965327222</v>
+      </c>
+      <c r="E71">
+        <v>-0.06714517015986916</v>
+      </c>
+      <c r="F71">
+        <v>0.03344645329843277</v>
+      </c>
+      <c r="G71">
+        <v>-0.05190828050527527</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.1009153406090642</v>
+        <v>0.105544873498934</v>
       </c>
       <c r="C72">
-        <v>0.06170599382725464</v>
+        <v>0.05830938841842903</v>
       </c>
       <c r="D72">
-        <v>0.05324011509224483</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.07563730069652363</v>
+      </c>
+      <c r="E72">
+        <v>-0.02182328584588551</v>
+      </c>
+      <c r="F72">
+        <v>0.03150224441428624</v>
+      </c>
+      <c r="G72">
+        <v>-0.05057915370556035</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.3383775523611091</v>
+        <v>0.2959786585787128</v>
       </c>
       <c r="C73">
-        <v>0.0131677731018592</v>
+        <v>0.04657252174199901</v>
       </c>
       <c r="D73">
-        <v>0.4622471741354463</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.3898404866854829</v>
+      </c>
+      <c r="E73">
+        <v>0.6002130119855047</v>
+      </c>
+      <c r="F73">
+        <v>0.08637024822383288</v>
+      </c>
+      <c r="G73">
+        <v>0.0428927778914082</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.09969935397056086</v>
+        <v>0.106200314436848</v>
       </c>
       <c r="C74">
-        <v>0.1008281354669733</v>
+        <v>0.09616805548163203</v>
       </c>
       <c r="D74">
-        <v>-0.01856523144815897</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.0290627593227737</v>
+      </c>
+      <c r="E74">
+        <v>-0.06581384772894089</v>
+      </c>
+      <c r="F74">
+        <v>0.05195100003004077</v>
+      </c>
+      <c r="G74">
+        <v>-0.03854473949724105</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.2499096284331549</v>
+        <v>0.2525374022056056</v>
       </c>
       <c r="C75">
-        <v>0.1199745304850122</v>
+        <v>0.140934473905928</v>
       </c>
       <c r="D75">
-        <v>-0.1419295821268793</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.1460372037695315</v>
+      </c>
+      <c r="E75">
+        <v>-0.0353625664073543</v>
+      </c>
+      <c r="F75">
+        <v>0.0008311937276081684</v>
+      </c>
+      <c r="G75">
+        <v>-0.0527538890200966</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.1159406812954786</v>
+        <v>0.1288052941719419</v>
       </c>
       <c r="C76">
-        <v>0.09809557330256387</v>
+        <v>0.1021495951563982</v>
       </c>
       <c r="D76">
-        <v>-0.05187454096449082</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.05163173735369158</v>
+      </c>
+      <c r="E76">
+        <v>-0.0946152716192155</v>
+      </c>
+      <c r="F76">
+        <v>0.01150828800505551</v>
+      </c>
+      <c r="G76">
+        <v>-0.05384253821930297</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.08426950180922402</v>
+        <v>0.06681949093572796</v>
       </c>
       <c r="C77">
-        <v>0.03759524974828279</v>
+        <v>0.06066382798037045</v>
       </c>
       <c r="D77">
-        <v>0.07850943624869078</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.1002089291478541</v>
+      </c>
+      <c r="E77">
+        <v>-0.1223872010694795</v>
+      </c>
+      <c r="F77">
+        <v>-0.241533231635644</v>
+      </c>
+      <c r="G77">
+        <v>0.1155291126821301</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.04366533244492723</v>
+        <v>0.04526540293752949</v>
       </c>
       <c r="C78">
-        <v>0.04521849821002814</v>
+        <v>0.0570845029747386</v>
       </c>
       <c r="D78">
-        <v>0.07537702429356782</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.1048026900276679</v>
+      </c>
+      <c r="E78">
+        <v>-0.05966854412223262</v>
+      </c>
+      <c r="F78">
+        <v>-0.0007009848917447906</v>
+      </c>
+      <c r="G78">
+        <v>-0.0328769208781225</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>-0.001702941985737672</v>
+        <v>0.03744012649448741</v>
       </c>
       <c r="C79">
-        <v>-0.001231840328806567</v>
+        <v>0.06027059702703956</v>
       </c>
       <c r="D79">
-        <v>0.008703169208489759</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.07497597134885661</v>
+      </c>
+      <c r="E79">
+        <v>-0.0939860178445944</v>
+      </c>
+      <c r="F79">
+        <v>0.05390630050805641</v>
+      </c>
+      <c r="G79">
+        <v>-0.3183463736813444</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.03301495345181284</v>
+        <v>0.02792003767551665</v>
       </c>
       <c r="C80">
-        <v>0.04052829674944967</v>
+        <v>0.04384985330818028</v>
       </c>
       <c r="D80">
-        <v>0.02989340257953459</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.03720456332016189</v>
+      </c>
+      <c r="E80">
+        <v>-0.01974602478117337</v>
+      </c>
+      <c r="F80">
+        <v>-0.04846991887399772</v>
+      </c>
+      <c r="G80">
+        <v>0.01166848929293731</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.1494810172203014</v>
+        <v>0.1425827508641252</v>
       </c>
       <c r="C81">
-        <v>0.0908347779639464</v>
+        <v>0.1028236850840244</v>
       </c>
       <c r="D81">
-        <v>-0.1143367761817534</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.1102372040205233</v>
+      </c>
+      <c r="E81">
+        <v>-0.07979534122094267</v>
+      </c>
+      <c r="F81">
+        <v>0.01118072251522493</v>
+      </c>
+      <c r="G81">
+        <v>-0.04737871079973271</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0.2271461900120222</v>
+        <v>0.2406505525274564</v>
       </c>
       <c r="C82">
-        <v>0.1463575518983364</v>
+        <v>0.1955102613415261</v>
       </c>
       <c r="D82">
-        <v>-0.1774302857583061</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.232684273760221</v>
+      </c>
+      <c r="E82">
+        <v>0.08030590821002744</v>
+      </c>
+      <c r="F82">
+        <v>-0.05078943720876544</v>
+      </c>
+      <c r="G82">
+        <v>-0.3359824702693711</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.03996630155936018</v>
+        <v>0.02649798662628889</v>
       </c>
       <c r="C83">
-        <v>0.04147372232352075</v>
+        <v>0.04957883053626858</v>
       </c>
       <c r="D83">
-        <v>0.05976009611233299</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.04134797882640281</v>
+      </c>
+      <c r="E83">
+        <v>-0.01989043690155484</v>
+      </c>
+      <c r="F83">
+        <v>-0.02320703448094431</v>
+      </c>
+      <c r="G83">
+        <v>0.005741440195848331</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>2.727913566959604e-05</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>0.002718038718685524</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.001657663332907033</v>
+      </c>
+      <c r="E84">
+        <v>-0.008520678382740109</v>
+      </c>
+      <c r="F84">
+        <v>0.002712503037352656</v>
+      </c>
+      <c r="G84">
+        <v>0.008962810907698945</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.1925818899540073</v>
+        <v>0.1823360844900181</v>
       </c>
       <c r="C85">
-        <v>0.1060172949969719</v>
+        <v>0.1166377264646934</v>
       </c>
       <c r="D85">
-        <v>-0.1373013868318244</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.1213655747204487</v>
+      </c>
+      <c r="E85">
+        <v>-0.01843876074710956</v>
+      </c>
+      <c r="F85">
+        <v>0.04602122235303317</v>
+      </c>
+      <c r="G85">
+        <v>-0.1070621347170767</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.01345896162221564</v>
+        <v>0.01652293671450067</v>
       </c>
       <c r="C86">
-        <v>0.03773382442883475</v>
+        <v>0.02079880484876438</v>
       </c>
       <c r="D86">
-        <v>0.1066641863618975</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.09933021293544791</v>
+      </c>
+      <c r="E86">
+        <v>-0.07240879491777881</v>
+      </c>
+      <c r="F86">
+        <v>-0.0109493263357294</v>
+      </c>
+      <c r="G86">
+        <v>-0.03929340662936501</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.03368577735428803</v>
+        <v>0.03350000014065133</v>
       </c>
       <c r="C87">
-        <v>0.0009665171310408034</v>
+        <v>0.01735619235251669</v>
       </c>
       <c r="D87">
-        <v>0.09960954718892996</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.1223255153277008</v>
+      </c>
+      <c r="E87">
+        <v>-0.1199867867543121</v>
+      </c>
+      <c r="F87">
+        <v>-0.05318667618338071</v>
+      </c>
+      <c r="G87">
+        <v>0.03828780701732986</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.1019550433411232</v>
+        <v>0.08767905171384455</v>
       </c>
       <c r="C88">
-        <v>0.08659307436606783</v>
+        <v>0.06699465971777431</v>
       </c>
       <c r="D88">
-        <v>-0.01004160313022793</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.01546000629965232</v>
+      </c>
+      <c r="E88">
+        <v>-0.05904731602063442</v>
+      </c>
+      <c r="F88">
+        <v>0.0188820329466369</v>
+      </c>
+      <c r="G88">
+        <v>-0.04811528018181411</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.2083308363717584</v>
+        <v>0.2363729656706242</v>
       </c>
       <c r="C89">
-        <v>-0.3620263298112468</v>
+        <v>-0.370386822957921</v>
       </c>
       <c r="D89">
-        <v>-0.0494055480000713</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.0147562836886426</v>
+      </c>
+      <c r="E89">
+        <v>-0.1000396591953284</v>
+      </c>
+      <c r="F89">
+        <v>-0.05969790706385386</v>
+      </c>
+      <c r="G89">
+        <v>-0.02307241797722909</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.1976652472268654</v>
+        <v>0.2137635469101878</v>
       </c>
       <c r="C90">
-        <v>-0.3144964910656963</v>
+        <v>-0.2957329689221805</v>
       </c>
       <c r="D90">
-        <v>-0.03464036745901239</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.004472189279914</v>
+      </c>
+      <c r="E90">
+        <v>-0.06355392058402057</v>
+      </c>
+      <c r="F90">
+        <v>0.009882436810482322</v>
+      </c>
+      <c r="G90">
+        <v>0.02065543284725144</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.1880470785049339</v>
+        <v>0.1831563975090693</v>
       </c>
       <c r="C91">
-        <v>0.1479245285821809</v>
+        <v>0.1551219441828039</v>
       </c>
       <c r="D91">
-        <v>-0.1212659540992738</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.1189850992698773</v>
+      </c>
+      <c r="E91">
+        <v>-0.06488706513258947</v>
+      </c>
+      <c r="F91">
+        <v>0.02087066365526537</v>
+      </c>
+      <c r="G91">
+        <v>-0.05214492959469644</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.1828158295140225</v>
+        <v>0.1961862360666844</v>
       </c>
       <c r="C92">
-        <v>-0.2641943922778865</v>
+        <v>-0.2806515942391918</v>
       </c>
       <c r="D92">
-        <v>0.002304310753236008</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.002504022578460819</v>
+      </c>
+      <c r="E92">
+        <v>-0.08909803427970706</v>
+      </c>
+      <c r="F92">
+        <v>-0.03531718192391932</v>
+      </c>
+      <c r="G92">
+        <v>-0.03454787775670193</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.2168724742051068</v>
+        <v>0.2319308385983217</v>
       </c>
       <c r="C93">
-        <v>-0.3226106628769123</v>
+        <v>-0.3060456060063095</v>
       </c>
       <c r="D93">
-        <v>-0.03668321324298579</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.01819022299713659</v>
+      </c>
+      <c r="E93">
+        <v>-0.04356559139148978</v>
+      </c>
+      <c r="F93">
+        <v>0.02854909353491867</v>
+      </c>
+      <c r="G93">
+        <v>-0.03676458861673653</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.3599096035753986</v>
+        <v>0.3448651576829125</v>
       </c>
       <c r="C94">
-        <v>0.182050267443298</v>
+        <v>0.2063860222200189</v>
       </c>
       <c r="D94">
-        <v>-0.5117976770592689</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.4473770640848978</v>
+      </c>
+      <c r="E94">
+        <v>0.002345136178097277</v>
+      </c>
+      <c r="F94">
+        <v>-0.06754285130084957</v>
+      </c>
+      <c r="G94">
+        <v>0.6387212134993878</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.09058980292522638</v>
+        <v>0.06688780688813491</v>
       </c>
       <c r="C95">
-        <v>0.006209948668460623</v>
+        <v>0.03775943137247749</v>
       </c>
       <c r="D95">
-        <v>0.1644402612696405</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.1466167169293744</v>
+      </c>
+      <c r="E95">
+        <v>0.04363175716029572</v>
+      </c>
+      <c r="F95">
+        <v>-0.9158681034581607</v>
+      </c>
+      <c r="G95">
+        <v>-0.02108126182593545</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.1841558542206325</v>
+        <v>0.1813968852479597</v>
       </c>
       <c r="C98">
-        <v>0.02004628937119441</v>
+        <v>0.04702345352573736</v>
       </c>
       <c r="D98">
-        <v>0.2294433445815032</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.2050008100825031</v>
+      </c>
+      <c r="E98">
+        <v>0.2270695094306431</v>
+      </c>
+      <c r="F98">
+        <v>0.07581439221628775</v>
+      </c>
+      <c r="G98">
+        <v>-0.008300395208946133</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.009641137725639163</v>
+        <v>0.007350467828871759</v>
       </c>
       <c r="C101">
-        <v>0.03085499189700563</v>
+        <v>0.02826500840321276</v>
       </c>
       <c r="D101">
-        <v>0.02373438545982905</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.05245471781838806</v>
+      </c>
+      <c r="E101">
+        <v>-0.07286147637679941</v>
+      </c>
+      <c r="F101">
+        <v>0.006573290632727094</v>
+      </c>
+      <c r="G101">
+        <v>-0.03728451650624154</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.1169190098522428</v>
+        <v>0.1178464837730253</v>
       </c>
       <c r="C102">
-        <v>0.07692566765942482</v>
+        <v>0.1067854463380995</v>
       </c>
       <c r="D102">
-        <v>-0.04641297647515871</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.05669960641587721</v>
+      </c>
+      <c r="E102">
+        <v>-0.001767548449680124</v>
+      </c>
+      <c r="F102">
+        <v>-0.02989797683716663</v>
+      </c>
+      <c r="G102">
+        <v>-0.05850411298367059</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
